--- a/wti模型3.0/data_input_auto/美国取暖油裂解.xlsx
+++ b/wti模型3.0/data_input_auto/美国取暖油裂解.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5886"/>
+  <dimension ref="A1:D5887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61717,7 +61717,9 @@
       <c r="A5877" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="B5877" t="inlineStr"/>
+      <c r="B5877" t="n">
+        <v>38.43</v>
+      </c>
       <c r="C5877" t="n">
         <v>1.5867</v>
       </c>
@@ -61727,93 +61729,103 @@
     </row>
     <row r="5878">
       <c r="A5878" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="B5878" t="inlineStr"/>
-      <c r="C5878" t="n">
-        <v>2.0163</v>
-      </c>
+        <v>45957</v>
+      </c>
+      <c r="B5878" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="C5878" t="inlineStr"/>
       <c r="D5878" t="inlineStr"/>
     </row>
     <row r="5879">
       <c r="A5879" s="2" t="n">
-        <v>45968</v>
+        <v>45961</v>
       </c>
       <c r="B5879" t="inlineStr"/>
       <c r="C5879" t="n">
-        <v>4.3535</v>
+        <v>2.0163</v>
       </c>
       <c r="D5879" t="inlineStr"/>
     </row>
     <row r="5880">
       <c r="A5880" s="2" t="n">
-        <v>45975</v>
+        <v>45968</v>
       </c>
       <c r="B5880" t="inlineStr"/>
       <c r="C5880" t="n">
-        <v>5.7171</v>
+        <v>4.3535</v>
       </c>
       <c r="D5880" t="inlineStr"/>
     </row>
     <row r="5881">
       <c r="A5881" s="2" t="n">
-        <v>45982</v>
+        <v>45975</v>
       </c>
       <c r="B5881" t="inlineStr"/>
       <c r="C5881" t="n">
-        <v>5.5719</v>
+        <v>5.7171</v>
       </c>
       <c r="D5881" t="inlineStr"/>
     </row>
     <row r="5882">
       <c r="A5882" s="2" t="n">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="B5882" t="inlineStr"/>
       <c r="C5882" t="n">
-        <v>4.7082</v>
+        <v>5.5719</v>
       </c>
       <c r="D5882" t="inlineStr"/>
     </row>
     <row r="5883">
       <c r="A5883" s="2" t="n">
-        <v>45996</v>
+        <v>45989</v>
       </c>
       <c r="B5883" t="inlineStr"/>
       <c r="C5883" t="n">
-        <v>5.5206</v>
+        <v>4.7082</v>
       </c>
       <c r="D5883" t="inlineStr"/>
     </row>
     <row r="5884">
       <c r="A5884" s="2" t="n">
-        <v>46003</v>
+        <v>45996</v>
       </c>
       <c r="B5884" t="inlineStr"/>
       <c r="C5884" t="n">
-        <v>7.699</v>
+        <v>5.5206</v>
       </c>
       <c r="D5884" t="inlineStr"/>
     </row>
     <row r="5885">
       <c r="A5885" s="2" t="n">
-        <v>46010</v>
+        <v>46003</v>
       </c>
       <c r="B5885" t="inlineStr"/>
       <c r="C5885" t="n">
-        <v>8.0418</v>
+        <v>7.699</v>
       </c>
       <c r="D5885" t="inlineStr"/>
     </row>
     <row r="5886">
       <c r="A5886" s="2" t="n">
-        <v>46017</v>
+        <v>46010</v>
       </c>
       <c r="B5886" t="inlineStr"/>
       <c r="C5886" t="n">
+        <v>8.0418</v>
+      </c>
+      <c r="D5886" t="inlineStr"/>
+    </row>
+    <row r="5887">
+      <c r="A5887" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="B5887" t="inlineStr"/>
+      <c r="C5887" t="n">
         <v>5.3214</v>
       </c>
-      <c r="D5886" t="inlineStr"/>
+      <c r="D5887" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
